--- a/current-excel-manifests/AssayATACSeqMetadataTemplate.xlsx
+++ b/current-excel-manifests/AssayATACSeqMetadataTemplate.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="248">
   <si>
     <t>Component</t>
   </si>
@@ -469,262 +469,268 @@
     <t>IlluminaHumanMethylation450</t>
   </si>
   <si>
-    <t>Immunocytochemistry</t>
+    <t>Illumina EPIC Array</t>
   </si>
   <si>
     <t>IlluminaInfiniumGSAMD-24v2-0</t>
   </si>
   <si>
-    <t>immunofluorescence</t>
+    <t>Immunocytochemistry</t>
   </si>
   <si>
     <t>IlluminaMethylationEPIC</t>
   </si>
   <si>
-    <t>immunohistochemistry</t>
+    <t>immunofluorescence</t>
   </si>
   <si>
     <t>IlluminaMiSeq</t>
   </si>
   <si>
-    <t>in vivo bioluminescence</t>
+    <t>immunohistochemistry</t>
   </si>
   <si>
     <t>IlluminaNovaseq6000</t>
   </si>
   <si>
-    <t>ISOSeq</t>
+    <t>in vivo bioluminescence</t>
   </si>
   <si>
     <t>IlluminaWholeGenomeDASL</t>
   </si>
   <si>
-    <t>jumpingLibrary</t>
+    <t>ISOSeq</t>
   </si>
   <si>
     <t>Infinium Global Diversity Array-8</t>
   </si>
   <si>
-    <t>kinesthetic behavior</t>
+    <t>jumpingLibrary</t>
   </si>
   <si>
     <t>Infinium HumanOmniExpressExome</t>
   </si>
   <si>
-    <t>label free mass spectrometry</t>
+    <t>kinesthetic behavior</t>
   </si>
   <si>
     <t>Infinium Omni2.5Exome-8 v1.1</t>
   </si>
   <si>
-    <t>Laser Speckle Imaging</t>
+    <t>label free mass spectrometry</t>
   </si>
   <si>
     <t>Infinium Omni2.5Exome-8 v1.3</t>
   </si>
   <si>
-    <t>LC-MS</t>
+    <t>Laser Speckle Imaging</t>
   </si>
   <si>
     <t>Infinium Omni2.5Exome-8 v1.4</t>
   </si>
   <si>
-    <t>LC-MSMS</t>
+    <t>LC-MS</t>
   </si>
   <si>
     <t>Infinium Omni2.5Exome-8 v1.5</t>
   </si>
   <si>
-    <t>LC-SRM</t>
+    <t>LC-MSMS</t>
   </si>
   <si>
     <t>InfiniumPsychArrayBeadChip</t>
   </si>
   <si>
-    <t>Leiden Oxylipins</t>
+    <t>LC-SRM</t>
   </si>
   <si>
     <t>Leco Pegasus IV</t>
   </si>
   <si>
-    <t>lentiMPRA</t>
+    <t>Leiden Oxylipins</t>
   </si>
   <si>
     <t>llumina Infinium General Screening Array 24-Kit v3.0</t>
   </si>
   <si>
-    <t>LFP</t>
+    <t>lentiMPRA</t>
   </si>
   <si>
     <t>LTQOrbitrapXL</t>
   </si>
   <si>
-    <t>liquid chromatography-electrochemical detection</t>
+    <t>LFP</t>
   </si>
   <si>
     <t>MiSeq</t>
   </si>
   <si>
-    <t>lncrnaSeq</t>
+    <t>liquid chromatography-electrochemical detection</t>
   </si>
   <si>
     <t>NanostringnCounter</t>
   </si>
   <si>
-    <t>locomotor activation behavior</t>
+    <t>lncrnaSeq</t>
   </si>
   <si>
     <t>NanostringnCounter_MouseADPanel</t>
   </si>
   <si>
-    <t>long-read rnaSeq</t>
+    <t>locomotor activation behavior</t>
   </si>
   <si>
     <t>NextSeq2000</t>
   </si>
   <si>
-    <t>LTP</t>
+    <t>long-read rnaSeq</t>
   </si>
   <si>
     <t>NextSeq500</t>
   </si>
   <si>
-    <t>m6A-rnaSeq</t>
+    <t>LTP</t>
   </si>
   <si>
     <t>Olink Target 96</t>
   </si>
   <si>
-    <t>MDMS-SL</t>
+    <t>m6A-rnaSeq</t>
   </si>
   <si>
     <t>orbitrap</t>
   </si>
   <si>
-    <t>memory behavior</t>
+    <t>MDMS-SL</t>
   </si>
   <si>
     <t>Orbitrap Exploris 240</t>
   </si>
   <si>
-    <t>Metabolon</t>
+    <t>memory behavior</t>
   </si>
   <si>
     <t>OrbiTrap Fusion</t>
   </si>
   <si>
-    <t>methylationArray</t>
+    <t>Metabolon</t>
   </si>
   <si>
     <t>Orbitrap Fusion Lumos</t>
   </si>
   <si>
-    <t>MIB/MS</t>
+    <t>methylationArray</t>
   </si>
   <si>
     <t>PacBio Sequel II</t>
   </si>
   <si>
-    <t>microRNAcounts</t>
+    <t>MIB/MS</t>
   </si>
   <si>
     <t>PacBio Sequel IIe</t>
   </si>
   <si>
-    <t>mirnaArray</t>
+    <t>microRNAcounts</t>
   </si>
   <si>
     <t>PacBioRSII</t>
   </si>
   <si>
-    <t>mirnaSeq</t>
+    <t>mirnaArray</t>
   </si>
   <si>
     <t>Perlegen300Karray</t>
   </si>
   <si>
-    <t>MRI</t>
+    <t>mirnaSeq</t>
   </si>
   <si>
     <t>PsychChip</t>
   </si>
   <si>
-    <t>mRNAcounts</t>
+    <t>MRI</t>
   </si>
   <si>
     <t>Q Exactive</t>
   </si>
   <si>
-    <t>MudPIT</t>
+    <t>mRNAcounts</t>
   </si>
   <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
-    <t>nextGenerationTargetedSequencing</t>
+    <t>mRNAseq</t>
   </si>
   <si>
     <t>Q Exactive HF-X</t>
   </si>
   <si>
-    <t>Nightingale NMR</t>
+    <t>MudPIT</t>
   </si>
   <si>
     <t>Q Exactive Plus</t>
   </si>
   <si>
-    <t>NOMe-Seq</t>
+    <t>nextGenerationTargetedSequencing</t>
   </si>
   <si>
     <t>quadrupole time-of-flight</t>
   </si>
   <si>
-    <t>novelty response behavior</t>
+    <t>Nightingale NMR</t>
   </si>
   <si>
     <t>Roche Cobas</t>
   </si>
   <si>
-    <t>open field test</t>
+    <t>NOMe-Seq</t>
   </si>
   <si>
     <t>SequenomMultiplex</t>
   </si>
   <si>
-    <t>oxBS-Seq</t>
+    <t>novelty response behavior</t>
   </si>
   <si>
     <t>Signa Premier AIR 3T</t>
   </si>
   <si>
-    <t>pharmacodynamics</t>
+    <t>open field test</t>
   </si>
   <si>
     <t>Simoa HD-1 Analyzer</t>
   </si>
   <si>
-    <t>pharmacokinetics</t>
+    <t>oxBS-Seq</t>
   </si>
   <si>
     <t>time-of-flight</t>
   </si>
   <si>
-    <t>photograph</t>
+    <t>pharmacodynamics</t>
   </si>
   <si>
     <t>triple quadrupole</t>
   </si>
   <si>
-    <t>polymeraseChainReaction</t>
+    <t>pharmacokinetics</t>
   </si>
   <si>
     <t>Xevo G2 QTOF</t>
   </si>
   <si>
-    <t>Positron Emission Tomography</t>
+    <t>photograph</t>
   </si>
   <si>
     <t>Xevo TQ-S</t>
+  </si>
+  <si>
+    <t>polymeraseChainReaction</t>
+  </si>
+  <si>
+    <t>Positron Emission Tomography</t>
   </si>
   <si>
     <t>proximity extension assay</t>
@@ -752,6 +758,9 @@
   </si>
   <si>
     <t>RPPA</t>
+  </si>
+  <si>
+    <t>RRBS</t>
   </si>
   <si>
     <t>sandwich ELISA</t>
@@ -797,6 +806,9 @@
   </si>
   <si>
     <t>TMT quantitation</t>
+  </si>
+  <si>
+    <t>TotalRNAseq</t>
   </si>
   <si>
     <t>tractionForceMicroscopy</t>
@@ -28212,14 +28224,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
       <formula1>Sheet2!$I$2:$I$17</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
-      <formula1>Sheet2!$D$2:$D$119</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="M2:M1000">
       <formula1>Sheet2!$M$2:$M$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="F2:F1000">
       <formula1>Sheet2!$F$2:$F$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
+      <formula1>Sheet2!$D$2:$D$123</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
       <formula1>Sheet2!$E$2:$E$81</formula1>
@@ -29216,6 +29228,26 @@
         <v>243</v>
       </c>
     </row>
+    <row r="120">
+      <c r="D120" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="D121" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="D122" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="D123" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/current-excel-manifests/AssayATACSeqMetadataTemplate.xlsx
+++ b/current-excel-manifests/AssayATACSeqMetadataTemplate.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="252">
   <si>
     <t>Component</t>
   </si>
@@ -250,7 +250,7 @@
     <t>HRC</t>
   </si>
   <si>
-    <t>Illumina DNA PCR-Free Prep Kit</t>
+    <t>Enzymatics (Qiagen)</t>
   </si>
   <si>
     <t>autoradiography</t>
@@ -262,7 +262,7 @@
     <t>MMUL1.0</t>
   </si>
   <si>
-    <t>NEBNext</t>
+    <t>Illumina DNA PCR-Free Prep Kit</t>
   </si>
   <si>
     <t>Baker Lipidomics</t>
@@ -271,7 +271,7 @@
     <t>Biocrates p180</t>
   </si>
   <si>
-    <t>NexteraXT</t>
+    <t>Illumina Ligation</t>
   </si>
   <si>
     <t>Biocrates Bile Acids</t>
@@ -280,7 +280,7 @@
     <t>Biograph mCT</t>
   </si>
   <si>
-    <t>Omni-ATAC</t>
+    <t>NEBNext</t>
   </si>
   <si>
     <t>Biocrates MxP Quant500 XL</t>
@@ -289,13 +289,13 @@
     <t>Bionano Irys</t>
   </si>
   <si>
-    <t>sac-seq</t>
+    <t>NexteraXT</t>
   </si>
   <si>
     <t>Bruker Avance III</t>
   </si>
   <si>
-    <t>Smart-seq1</t>
+    <t>Omni-ATAC</t>
   </si>
   <si>
     <t>Biocrates Q500</t>
@@ -304,7 +304,7 @@
     <t>confocalImaging</t>
   </si>
   <si>
-    <t>Smart-seq2</t>
+    <t>sac-seq</t>
   </si>
   <si>
     <t>bisulfiteSeq</t>
@@ -313,7 +313,7 @@
     <t>ddSEQ Single-Cell Isolator</t>
   </si>
   <si>
-    <t>Smart-seq4</t>
+    <t>Smart-seq1</t>
   </si>
   <si>
     <t>Blood Chemistry Measurement</t>
@@ -322,7 +322,7 @@
     <t>DNBSEQ</t>
   </si>
   <si>
-    <t>SMRTbell</t>
+    <t>Smart-seq2</t>
   </si>
   <si>
     <t>brightfieldMicroscopy</t>
@@ -331,7 +331,7 @@
     <t>GAIIx</t>
   </si>
   <si>
-    <t>TruSeq</t>
+    <t>Smart-seq4</t>
   </si>
   <si>
     <t>cellViabilityAssay</t>
@@ -340,7 +340,7 @@
     <t>HiSeq1000</t>
   </si>
   <si>
-    <t>Ultralow Methyl-Seq</t>
+    <t>SMRTbell</t>
   </si>
   <si>
     <t>ChIPSeq</t>
@@ -349,10 +349,16 @@
     <t>HiSeq2000</t>
   </si>
   <si>
+    <t>TruSeq</t>
+  </si>
+  <si>
     <t>CITESeq</t>
   </si>
   <si>
     <t>HiSeq2500</t>
+  </si>
+  <si>
+    <t>Ultralow Methyl-Seq</t>
   </si>
   <si>
     <t>contextual conditioning behavior</t>
@@ -496,241 +502,247 @@
     <t>in vivo bioluminescence</t>
   </si>
   <si>
-    <t>IlluminaWholeGenomeDASL</t>
+    <t>IlluminaNovaSeqX</t>
   </si>
   <si>
     <t>ISOSeq</t>
   </si>
   <si>
-    <t>Infinium Global Diversity Array-8</t>
+    <t>IlluminaNovaSeqXplus</t>
   </si>
   <si>
     <t>jumpingLibrary</t>
   </si>
   <si>
-    <t>Infinium HumanOmniExpressExome</t>
+    <t>IlluminaWholeGenomeDASL</t>
   </si>
   <si>
     <t>kinesthetic behavior</t>
   </si>
   <si>
-    <t>Infinium Omni2.5Exome-8 v1.1</t>
+    <t>Infinium Global Diversity Array-8</t>
   </si>
   <si>
     <t>label free mass spectrometry</t>
   </si>
   <si>
-    <t>Infinium Omni2.5Exome-8 v1.3</t>
+    <t>Infinium HumanOmniExpressExome</t>
   </si>
   <si>
     <t>Laser Speckle Imaging</t>
   </si>
   <si>
-    <t>Infinium Omni2.5Exome-8 v1.4</t>
+    <t>Infinium Omni2.5Exome-8 v1.1</t>
   </si>
   <si>
     <t>LC-MS</t>
   </si>
   <si>
-    <t>Infinium Omni2.5Exome-8 v1.5</t>
+    <t>Infinium Omni2.5Exome-8 v1.3</t>
   </si>
   <si>
     <t>LC-MSMS</t>
   </si>
   <si>
-    <t>InfiniumPsychArrayBeadChip</t>
+    <t>Infinium Omni2.5Exome-8 v1.4</t>
   </si>
   <si>
     <t>LC-SRM</t>
   </si>
   <si>
-    <t>Leco Pegasus IV</t>
+    <t>Infinium Omni2.5Exome-8 v1.5</t>
   </si>
   <si>
     <t>Leiden Oxylipins</t>
   </si>
   <si>
-    <t>llumina Infinium General Screening Array 24-Kit v3.0</t>
+    <t>InfiniumPsychArrayBeadChip</t>
   </si>
   <si>
     <t>lentiMPRA</t>
   </si>
   <si>
-    <t>LTQOrbitrapXL</t>
+    <t>Leco Pegasus IV</t>
   </si>
   <si>
     <t>LFP</t>
   </si>
   <si>
-    <t>MiSeq</t>
+    <t>llumina Infinium General Screening Array 24-Kit v3.0</t>
   </si>
   <si>
     <t>liquid chromatography-electrochemical detection</t>
   </si>
   <si>
-    <t>NanostringnCounter</t>
+    <t>LTQOrbitrapXL</t>
   </si>
   <si>
     <t>lncrnaSeq</t>
   </si>
   <si>
-    <t>NanostringnCounter_MouseADPanel</t>
+    <t>MiSeq</t>
   </si>
   <si>
     <t>locomotor activation behavior</t>
   </si>
   <si>
-    <t>NextSeq2000</t>
+    <t>NanostringnCounter</t>
   </si>
   <si>
     <t>long-read rnaSeq</t>
   </si>
   <si>
-    <t>NextSeq500</t>
+    <t>NanostringnCounter_MouseADPanel</t>
   </si>
   <si>
     <t>LTP</t>
   </si>
   <si>
-    <t>Olink Target 96</t>
+    <t>NextSeq2000</t>
   </si>
   <si>
     <t>m6A-rnaSeq</t>
   </si>
   <si>
-    <t>orbitrap</t>
+    <t>NextSeq500</t>
   </si>
   <si>
     <t>MDMS-SL</t>
   </si>
   <si>
-    <t>Orbitrap Exploris 240</t>
+    <t>Olink Target 96</t>
   </si>
   <si>
     <t>memory behavior</t>
   </si>
   <si>
-    <t>OrbiTrap Fusion</t>
+    <t>orbitrap</t>
   </si>
   <si>
     <t>Metabolon</t>
   </si>
   <si>
-    <t>Orbitrap Fusion Lumos</t>
+    <t>Orbitrap Exploris 240</t>
   </si>
   <si>
     <t>methylationArray</t>
   </si>
   <si>
-    <t>PacBio Sequel II</t>
+    <t>OrbiTrap Fusion</t>
   </si>
   <si>
     <t>MIB/MS</t>
   </si>
   <si>
-    <t>PacBio Sequel IIe</t>
+    <t>Orbitrap Fusion Lumos</t>
   </si>
   <si>
     <t>microRNAcounts</t>
   </si>
   <si>
-    <t>PacBioRSII</t>
+    <t>PacBio Sequel II</t>
   </si>
   <si>
     <t>mirnaArray</t>
   </si>
   <si>
-    <t>Perlegen300Karray</t>
+    <t>PacBio Sequel IIe</t>
   </si>
   <si>
     <t>mirnaSeq</t>
   </si>
   <si>
-    <t>PsychChip</t>
+    <t>PacBioRSII</t>
   </si>
   <si>
     <t>MRI</t>
   </si>
   <si>
-    <t>Q Exactive</t>
+    <t>Perlegen300Karray</t>
   </si>
   <si>
     <t>mRNAcounts</t>
   </si>
   <si>
-    <t>Q Exactive HF</t>
+    <t>PsychChip</t>
   </si>
   <si>
     <t>mRNAseq</t>
   </si>
   <si>
-    <t>Q Exactive HF-X</t>
+    <t>Q Exactive</t>
   </si>
   <si>
     <t>MudPIT</t>
   </si>
   <si>
-    <t>Q Exactive Plus</t>
+    <t>Q Exactive HF</t>
   </si>
   <si>
     <t>nextGenerationTargetedSequencing</t>
   </si>
   <si>
-    <t>quadrupole time-of-flight</t>
+    <t>Q Exactive HF-X</t>
   </si>
   <si>
     <t>Nightingale NMR</t>
   </si>
   <si>
-    <t>Roche Cobas</t>
+    <t>Q Exactive Plus</t>
   </si>
   <si>
     <t>NOMe-Seq</t>
   </si>
   <si>
-    <t>SequenomMultiplex</t>
+    <t>quadrupole time-of-flight</t>
   </si>
   <si>
     <t>novelty response behavior</t>
   </si>
   <si>
-    <t>Signa Premier AIR 3T</t>
+    <t>Roche Cobas</t>
   </si>
   <si>
     <t>open field test</t>
   </si>
   <si>
-    <t>Simoa HD-1 Analyzer</t>
+    <t>SequenomMultiplex</t>
   </si>
   <si>
     <t>oxBS-Seq</t>
   </si>
   <si>
-    <t>time-of-flight</t>
+    <t>Signa Premier AIR 3T</t>
   </si>
   <si>
     <t>pharmacodynamics</t>
   </si>
   <si>
-    <t>triple quadrupole</t>
+    <t>Simoa HD-1 Analyzer</t>
   </si>
   <si>
     <t>pharmacokinetics</t>
   </si>
   <si>
-    <t>Xevo G2 QTOF</t>
+    <t>time-of-flight</t>
   </si>
   <si>
     <t>photograph</t>
   </si>
   <si>
-    <t>Xevo TQ-S</t>
+    <t>triple quadrupole</t>
   </si>
   <si>
     <t>polymeraseChainReaction</t>
   </si>
   <si>
+    <t>Xevo G2 QTOF</t>
+  </si>
+  <si>
     <t>Positron Emission Tomography</t>
+  </si>
+  <si>
+    <t>Xevo TQ-S</t>
   </si>
   <si>
     <t>proximity extension assay</t>
@@ -28221,8 +28233,8 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
-      <formula1>Sheet2!$I$2:$I$17</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
+      <formula1>Sheet2!$E$2:$E$83</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="M2:M1000">
       <formula1>Sheet2!$M$2:$M$3</formula1>
@@ -28233,8 +28245,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="D2:D1000">
       <formula1>Sheet2!$D$2:$D$123</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
-      <formula1>Sheet2!$E$2:$E$81</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="I2:I1000">
+      <formula1>Sheet2!$I$2:$I$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose one from dropdown" sqref="O2:O1000">
       <formula1>Sheet2!$O$2:$O$3</formula1>
@@ -28533,719 +28545,731 @@
       <c r="E18" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="I18" s="7" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="19">
       <c r="D19" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="D20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="D21" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="D22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="D23" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="D24" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
       <c r="D25" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="D26" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
       <c r="D27" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
       <c r="D28" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="D29" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
       <c r="D30" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="D31" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
       <c r="D32" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="D33" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34">
       <c r="D34" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
       <c r="D35" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="D36" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37">
       <c r="D37" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
       <c r="D38" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="D39" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
       <c r="D40" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41">
       <c r="D41" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42">
       <c r="D42" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
       <c r="D43" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44">
       <c r="D44" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45">
       <c r="D45" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46">
       <c r="D46" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47">
       <c r="D47" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48">
       <c r="D48" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49">
       <c r="D49" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50">
       <c r="D50" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51">
       <c r="D51" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52">
       <c r="D52" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53">
       <c r="D53" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54">
       <c r="D54" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55">
       <c r="D55" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56">
       <c r="D56" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57">
       <c r="D57" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58">
       <c r="D58" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59">
       <c r="D59" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60">
       <c r="D60" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61">
       <c r="D61" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62">
       <c r="D62" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63">
       <c r="D63" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64">
       <c r="D64" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65">
       <c r="D65" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66">
       <c r="D66" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67">
       <c r="D67" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68">
       <c r="D68" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69">
       <c r="D69" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70">
       <c r="D70" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71">
       <c r="D71" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72">
       <c r="D72" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73">
       <c r="D73" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74">
       <c r="D74" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75">
       <c r="D75" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76">
       <c r="D76" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77">
       <c r="D77" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78">
       <c r="D78" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
       <c r="D79" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
       <c r="D80" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81">
       <c r="D81" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82">
       <c r="D82" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="83">
       <c r="D83" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="84">
       <c r="D84" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85">
       <c r="D85" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86">
       <c r="D86" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87">
       <c r="D87" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88">
       <c r="D88" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
       <c r="D89" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90">
       <c r="D90" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91">
       <c r="D91" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92">
       <c r="D92" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93">
       <c r="D93" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94">
       <c r="D94" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95">
       <c r="D95" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96">
       <c r="D96" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97">
       <c r="D97" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98">
       <c r="D98" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99">
       <c r="D99" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100">
       <c r="D100" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101">
       <c r="D101" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102">
       <c r="D102" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103">
       <c r="D103" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104">
       <c r="D104" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105">
       <c r="D105" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106">
       <c r="D106" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107">
       <c r="D107" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108">
       <c r="D108" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109">
       <c r="D109" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110">
       <c r="D110" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111">
       <c r="D111" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112">
       <c r="D112" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113">
       <c r="D113" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114">
       <c r="D114" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115">
       <c r="D115" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116">
       <c r="D116" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117">
       <c r="D117" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118">
       <c r="D118" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119">
       <c r="D119" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120">
       <c r="D120" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121">
       <c r="D121" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122">
       <c r="D122" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123">
       <c r="D123" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/current-excel-manifests/AssayATACSeqMetadataTemplate.xlsx
+++ b/current-excel-manifests/AssayATACSeqMetadataTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -969,6 +969,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
